--- a/feats.xlsx
+++ b/feats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Desktop\bengeon\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6415391d9ae359f4/Documents/GitHub/benbrinkman.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0821D7-8328-4D42-BD09-5F4D7E21CD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6C0821D7-8328-4D42-BD09-5F4D7E21CD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C91F83F-6827-4BD9-808B-7D56911FA39F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2493132A-34AE-4527-9B26-8516A374A7B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2493132A-34AE-4527-9B26-8516A374A7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1977,11 +1977,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77744CA9-9206-4DB5-A820-B4795C3B5ABA}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection sqref="A1:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -2001,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
